--- a/calculator.xlsx
+++ b/calculator.xlsx
@@ -27618,12 +27618,12 @@
     <row r="375">
       <c r="B375" s="1" t="n"/>
       <c r="C375" s="18" t="n"/>
-      <c r="F375" t="inlineStr">
+      <c r="F375" s="2" t="inlineStr">
         <is>
           <t>DXハンバーグ弁当</t>
         </is>
       </c>
-      <c r="G375" t="n">
+      <c r="G375" s="2" t="n">
         <v>5</v>
       </c>
       <c r="Q375" s="10">
@@ -27640,12 +27640,12 @@
         <f>TEXT(B376,"aaaa")</f>
         <v/>
       </c>
-      <c r="F376" t="inlineStr">
+      <c r="F376" s="2" t="inlineStr">
         <is>
           <t>ハンバーグ弁当</t>
         </is>
       </c>
-      <c r="G376" t="n">
+      <c r="G376" s="2" t="n">
         <v>4</v>
       </c>
       <c r="Q376" s="10">
@@ -27662,12 +27662,12 @@
         <f>TEXT(B377,"aaaa")</f>
         <v/>
       </c>
-      <c r="F377" t="inlineStr">
+      <c r="F377" s="2" t="inlineStr">
         <is>
           <t>春巻き&amp;ササミカツ弁当</t>
         </is>
       </c>
-      <c r="G377" t="n">
+      <c r="G377" s="2" t="n">
         <v>5</v>
       </c>
       <c r="Q377" s="10">
@@ -27684,12 +27684,12 @@
         <f>TEXT(B378,"aaaa")</f>
         <v/>
       </c>
-      <c r="F378" t="inlineStr">
+      <c r="F378" s="2" t="inlineStr">
         <is>
           <t>ガパオライス</t>
         </is>
       </c>
-      <c r="G378" t="n">
+      <c r="G378" s="2" t="n">
         <v>3</v>
       </c>
       <c r="Q378" s="10">
@@ -27706,12 +27706,12 @@
         <f>TEXT(B379,"aaaa")</f>
         <v/>
       </c>
-      <c r="F379" t="inlineStr">
+      <c r="F379" s="2" t="inlineStr">
         <is>
           <t>オムライス</t>
         </is>
       </c>
-      <c r="G379" t="n">
+      <c r="G379" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q379" s="10">
@@ -27728,12 +27728,12 @@
         <f>TEXT(B380,"aaaa")</f>
         <v/>
       </c>
-      <c r="F380" t="inlineStr">
+      <c r="F380" s="2" t="inlineStr">
         <is>
           <t>サバカラ弁当</t>
         </is>
       </c>
-      <c r="G380" t="n">
+      <c r="G380" s="2" t="n">
         <v>4</v>
       </c>
       <c r="Q380" s="10">
@@ -27750,12 +27750,12 @@
         <f>TEXT(B381,"aaaa")</f>
         <v/>
       </c>
-      <c r="F381" t="inlineStr">
+      <c r="F381" s="2" t="inlineStr">
         <is>
           <t>シャケカラ弁当</t>
         </is>
       </c>
-      <c r="G381" t="n">
+      <c r="G381" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q381" s="10">
@@ -27772,12 +27772,12 @@
         <f>TEXT(B382,"aaaa")</f>
         <v/>
       </c>
-      <c r="F382" t="inlineStr">
+      <c r="F382" s="2" t="inlineStr">
         <is>
           <t>カラアゲ弁当</t>
         </is>
       </c>
-      <c r="G382" t="n">
+      <c r="G382" s="2" t="n">
         <v>5</v>
       </c>
       <c r="Q382" s="10">
@@ -27794,11 +27794,13 @@
         <f>TEXT(B383,"aaaa")</f>
         <v/>
       </c>
-      <c r="F383" t="n">
-        <v/>
-      </c>
-      <c r="G383" t="n">
-        <v/>
+      <c r="F383" s="2" t="inlineStr">
+        <is>
+          <t>ハンバーグカレー</t>
+        </is>
+      </c>
+      <c r="G383" s="2" t="n">
+        <v>3</v>
       </c>
       <c r="Q383" s="10">
         <f>SUM(H383:O383)</f>
@@ -27814,10 +27816,10 @@
         <f>TEXT(B384,"aaaa")</f>
         <v/>
       </c>
-      <c r="F384" t="n">
-        <v/>
-      </c>
-      <c r="G384" t="n">
+      <c r="F384" s="2" t="n">
+        <v/>
+      </c>
+      <c r="G384" s="2" t="n">
         <v/>
       </c>
       <c r="Q384" s="10">
@@ -27834,6 +27836,12 @@
         <f>TEXT(B385,"aaaa")</f>
         <v/>
       </c>
+      <c r="F385" t="n">
+        <v/>
+      </c>
+      <c r="G385" t="n">
+        <v/>
+      </c>
       <c r="Q385" s="10">
         <f>SUM(H385:O385)</f>
         <v/>
@@ -27848,6 +27856,12 @@
         <f>TEXT(B386,"aaaa")</f>
         <v/>
       </c>
+      <c r="F386" t="n">
+        <v/>
+      </c>
+      <c r="G386" t="n">
+        <v/>
+      </c>
       <c r="Q386" s="10">
         <f>SUM(H386:O386)</f>
         <v/>
@@ -27862,6 +27876,12 @@
         <f>TEXT(B387,"aaaa")</f>
         <v/>
       </c>
+      <c r="F387" t="n">
+        <v/>
+      </c>
+      <c r="G387" t="n">
+        <v/>
+      </c>
       <c r="Q387" s="10">
         <f>SUM(H387:O387)</f>
         <v/>
@@ -27876,6 +27896,12 @@
         <f>TEXT(B388,"aaaa")</f>
         <v/>
       </c>
+      <c r="F388" t="n">
+        <v/>
+      </c>
+      <c r="G388" t="n">
+        <v/>
+      </c>
       <c r="Q388" s="10">
         <f>SUM(H388:O388)</f>
         <v/>
@@ -27890,6 +27916,12 @@
         <f>TEXT(B389,"aaaa")</f>
         <v/>
       </c>
+      <c r="F389" t="n">
+        <v/>
+      </c>
+      <c r="G389" t="n">
+        <v/>
+      </c>
       <c r="Q389" s="10">
         <f>SUM(H389:O389)</f>
         <v/>
@@ -27904,6 +27936,12 @@
         <f>TEXT(B390,"aaaa")</f>
         <v/>
       </c>
+      <c r="F390" t="n">
+        <v/>
+      </c>
+      <c r="G390" t="n">
+        <v/>
+      </c>
       <c r="Q390" s="10">
         <f>SUM(H390:O390)</f>
         <v/>
@@ -27918,6 +27956,12 @@
         <f>TEXT(B391,"aaaa")</f>
         <v/>
       </c>
+      <c r="F391" t="n">
+        <v/>
+      </c>
+      <c r="G391" t="n">
+        <v/>
+      </c>
       <c r="Q391" s="10">
         <f>SUM(H391:O391)</f>
         <v/>
@@ -27930,6 +27974,12 @@
     <row r="392">
       <c r="C392" s="18">
         <f>TEXT(B392,"aaaa")</f>
+        <v/>
+      </c>
+      <c r="F392" t="n">
+        <v/>
+      </c>
+      <c r="G392" t="n">
         <v/>
       </c>
       <c r="Q392" s="10">

--- a/calculator.xlsx
+++ b/calculator.xlsx
@@ -27816,11 +27816,13 @@
         <f>TEXT(B384,"aaaa")</f>
         <v/>
       </c>
-      <c r="F384" s="2" t="n">
-        <v/>
+      <c r="F384" s="2" t="inlineStr">
+        <is>
+          <t>ハンバーグ弁当</t>
+        </is>
       </c>
       <c r="G384" s="2" t="n">
-        <v/>
+        <v>3</v>
       </c>
       <c r="Q384" s="10">
         <f>SUM(H384:O384)</f>
@@ -27836,11 +27838,13 @@
         <f>TEXT(B385,"aaaa")</f>
         <v/>
       </c>
-      <c r="F385" t="n">
-        <v/>
-      </c>
-      <c r="G385" t="n">
-        <v/>
+      <c r="F385" s="2" t="inlineStr">
+        <is>
+          <t>カラアゲ弁当</t>
+        </is>
+      </c>
+      <c r="G385" s="2" t="n">
+        <v>4</v>
       </c>
       <c r="Q385" s="10">
         <f>SUM(H385:O385)</f>
@@ -27856,10 +27860,10 @@
         <f>TEXT(B386,"aaaa")</f>
         <v/>
       </c>
-      <c r="F386" t="n">
-        <v/>
-      </c>
-      <c r="G386" t="n">
+      <c r="F386" s="2" t="n">
+        <v/>
+      </c>
+      <c r="G386" s="2" t="n">
         <v/>
       </c>
       <c r="Q386" s="10">
@@ -27876,10 +27880,10 @@
         <f>TEXT(B387,"aaaa")</f>
         <v/>
       </c>
-      <c r="F387" t="n">
-        <v/>
-      </c>
-      <c r="G387" t="n">
+      <c r="F387" s="2" t="n">
+        <v/>
+      </c>
+      <c r="G387" s="2" t="n">
         <v/>
       </c>
       <c r="Q387" s="10">
@@ -27896,10 +27900,10 @@
         <f>TEXT(B388,"aaaa")</f>
         <v/>
       </c>
-      <c r="F388" t="n">
-        <v/>
-      </c>
-      <c r="G388" t="n">
+      <c r="F388" s="2" t="n">
+        <v/>
+      </c>
+      <c r="G388" s="2" t="n">
         <v/>
       </c>
       <c r="Q388" s="10">
@@ -27916,10 +27920,10 @@
         <f>TEXT(B389,"aaaa")</f>
         <v/>
       </c>
-      <c r="F389" t="n">
-        <v/>
-      </c>
-      <c r="G389" t="n">
+      <c r="F389" s="2" t="n">
+        <v/>
+      </c>
+      <c r="G389" s="2" t="n">
         <v/>
       </c>
       <c r="Q389" s="10">
@@ -27936,10 +27940,10 @@
         <f>TEXT(B390,"aaaa")</f>
         <v/>
       </c>
-      <c r="F390" t="n">
-        <v/>
-      </c>
-      <c r="G390" t="n">
+      <c r="F390" s="2" t="n">
+        <v/>
+      </c>
+      <c r="G390" s="2" t="n">
         <v/>
       </c>
       <c r="Q390" s="10">
@@ -27956,10 +27960,10 @@
         <f>TEXT(B391,"aaaa")</f>
         <v/>
       </c>
-      <c r="F391" t="n">
-        <v/>
-      </c>
-      <c r="G391" t="n">
+      <c r="F391" s="2" t="n">
+        <v/>
+      </c>
+      <c r="G391" s="2" t="n">
         <v/>
       </c>
       <c r="Q391" s="10">
@@ -27976,10 +27980,10 @@
         <f>TEXT(B392,"aaaa")</f>
         <v/>
       </c>
-      <c r="F392" t="n">
-        <v/>
-      </c>
-      <c r="G392" t="n">
+      <c r="F392" s="2" t="n">
+        <v/>
+      </c>
+      <c r="G392" s="2" t="n">
         <v/>
       </c>
       <c r="Q392" s="10">
@@ -27994,6 +27998,12 @@
     <row r="393">
       <c r="C393" s="18">
         <f>TEXT(B393,"aaaa")</f>
+        <v/>
+      </c>
+      <c r="F393" t="n">
+        <v/>
+      </c>
+      <c r="G393" t="n">
         <v/>
       </c>
       <c r="Q393" s="10">
